--- a/supplement/plate-layout-template.xlsx
+++ b/supplement/plate-layout-template.xlsx
@@ -1,33 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katrin\1209 - Doktor\writing\150825 - BF assay robot BMC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26621"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="15360" windowHeight="16020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="layout plate ..a" sheetId="3" r:id="rId1"/>
     <sheet name="plate ..b" sheetId="6" r:id="rId2"/>
     <sheet name="..c" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="18">
-  <si>
-    <t>ax</t>
-  </si>
-  <si>
-    <t>xen</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -59,7 +53,22 @@
     <t>cell_culture</t>
   </si>
   <si>
+    <t>YYMMDDxa</t>
+  </si>
+  <si>
+    <t>YYMMDDxb</t>
+  </si>
+  <si>
+    <t>YYMMDDxc</t>
+  </si>
+  <si>
+    <t>ax</t>
+  </si>
+  <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>xen</t>
   </si>
   <si>
     <t>NA</t>
@@ -67,21 +76,12 @@
   <si>
     <t>S32</t>
   </si>
-  <si>
-    <t>150522af</t>
-  </si>
-  <si>
-    <t>150522ae</t>
-  </si>
-  <si>
-    <t>150522ag</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -113,10 +113,16 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -148,10 +154,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -184,30 +246,80 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="57">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -265,7 +377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,7 +412,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,7 +589,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,25 +597,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="A30" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" customWidth="1"/>
+    <col min="4" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="8" width="9.5703125" customWidth="1"/>
+    <col min="7" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="13" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="14">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="2"/>
@@ -518,7 +630,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="14">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="2"/>
@@ -533,7 +645,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="14">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="2"/>
@@ -548,7 +660,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="14">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="2"/>
@@ -563,11 +675,11 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="14">
       <c r="A5" s="9"/>
       <c r="B5" s="1"/>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -580,7 +692,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="14">
       <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -611,250 +723,250 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="14">
       <c r="A7" s="9"/>
       <c r="B7" s="1"/>
       <c r="C7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="13" t="str">
+      <c r="D7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="12" t="str">
         <f>D7</f>
         <v>ax</v>
       </c>
-      <c r="F7" s="13" t="str">
+      <c r="F7" s="12" t="str">
         <f t="shared" ref="F7:K7" si="0">E7</f>
         <v>ax</v>
       </c>
-      <c r="G7" s="13" t="str">
+      <c r="G7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ax</v>
       </c>
-      <c r="H7" s="13" t="str">
+      <c r="H7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ax</v>
       </c>
-      <c r="I7" s="13" t="str">
+      <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ax</v>
       </c>
-      <c r="J7" s="13" t="str">
+      <c r="J7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ax</v>
       </c>
-      <c r="K7" s="13" t="str">
+      <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ax</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="14">
       <c r="A8" s="9"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12" t="str">
         <f t="shared" ref="E8:K8" si="1">D8</f>
         <v>co</v>
       </c>
-      <c r="F8" s="13" t="str">
+      <c r="F8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="G8" s="13" t="str">
+      <c r="G8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="H8" s="13" t="str">
+      <c r="H8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="I8" s="13" t="str">
+      <c r="I8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="J8" s="13" t="str">
+      <c r="J8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="K8" s="13" t="str">
+      <c r="K8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="14">
       <c r="A9" s="9"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="12" t="str">
         <f t="shared" ref="E9:K9" si="2">D9</f>
         <v>xen</v>
       </c>
-      <c r="F9" s="13" t="str">
+      <c r="F9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>xen</v>
       </c>
-      <c r="G9" s="13" t="str">
+      <c r="G9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>xen</v>
       </c>
-      <c r="H9" s="13" t="str">
+      <c r="H9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>xen</v>
       </c>
-      <c r="I9" s="13" t="str">
+      <c r="I9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>xen</v>
       </c>
-      <c r="J9" s="13" t="str">
+      <c r="J9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>xen</v>
       </c>
-      <c r="K9" s="13" t="str">
+      <c r="K9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>xen</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="14">
       <c r="A10" s="9"/>
       <c r="B10" s="1"/>
       <c r="C10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12" t="str">
         <f>D7</f>
         <v>ax</v>
       </c>
-      <c r="E10" s="13" t="str">
+      <c r="E10" s="12" t="str">
         <f t="shared" ref="E10:K10" si="3">D10</f>
         <v>ax</v>
       </c>
-      <c r="F10" s="13" t="str">
+      <c r="F10" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ax</v>
       </c>
-      <c r="G10" s="13" t="str">
+      <c r="G10" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ax</v>
       </c>
-      <c r="H10" s="13" t="str">
+      <c r="H10" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ax</v>
       </c>
-      <c r="I10" s="13" t="str">
+      <c r="I10" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ax</v>
       </c>
-      <c r="J10" s="13" t="str">
+      <c r="J10" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ax</v>
       </c>
-      <c r="K10" s="13" t="str">
+      <c r="K10" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ax</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="14">
       <c r="A11" s="9"/>
       <c r="B11" s="1"/>
       <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="13" t="str">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="str">
         <f t="shared" ref="D11:D12" si="4">D8</f>
         <v>co</v>
       </c>
-      <c r="E11" s="13" t="str">
+      <c r="E11" s="12" t="str">
         <f t="shared" ref="E11:K11" si="5">D11</f>
         <v>co</v>
       </c>
-      <c r="F11" s="13" t="str">
+      <c r="F11" s="12" t="str">
         <f t="shared" si="5"/>
         <v>co</v>
       </c>
-      <c r="G11" s="13" t="str">
+      <c r="G11" s="12" t="str">
         <f t="shared" si="5"/>
         <v>co</v>
       </c>
-      <c r="H11" s="13" t="str">
+      <c r="H11" s="12" t="str">
         <f t="shared" si="5"/>
         <v>co</v>
       </c>
-      <c r="I11" s="13" t="str">
+      <c r="I11" s="12" t="str">
         <f t="shared" si="5"/>
         <v>co</v>
       </c>
-      <c r="J11" s="13" t="str">
+      <c r="J11" s="12" t="str">
         <f t="shared" si="5"/>
         <v>co</v>
       </c>
-      <c r="K11" s="13" t="str">
+      <c r="K11" s="12" t="str">
         <f t="shared" si="5"/>
         <v>co</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="14">
       <c r="A12" s="9"/>
       <c r="B12" s="1"/>
       <c r="C12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="13" t="str">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12" t="str">
         <f t="shared" si="4"/>
         <v>xen</v>
       </c>
-      <c r="E12" s="13" t="str">
+      <c r="E12" s="12" t="str">
         <f t="shared" ref="E12:K12" si="6">D12</f>
         <v>xen</v>
       </c>
-      <c r="F12" s="13" t="str">
+      <c r="F12" s="12" t="str">
         <f t="shared" si="6"/>
         <v>xen</v>
       </c>
-      <c r="G12" s="13" t="str">
+      <c r="G12" s="12" t="str">
         <f t="shared" si="6"/>
         <v>xen</v>
       </c>
-      <c r="H12" s="13" t="str">
+      <c r="H12" s="12" t="str">
         <f t="shared" si="6"/>
         <v>xen</v>
       </c>
-      <c r="I12" s="13" t="str">
+      <c r="I12" s="12" t="str">
         <f t="shared" si="6"/>
         <v>xen</v>
       </c>
-      <c r="J12" s="13" t="str">
+      <c r="J12" s="12" t="str">
         <f t="shared" si="6"/>
         <v>xen</v>
       </c>
-      <c r="K12" s="13" t="str">
+      <c r="K12" s="12" t="str">
         <f t="shared" si="6"/>
         <v>xen</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="14">
       <c r="A13" s="9"/>
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
@@ -869,7 +981,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="14">
       <c r="A14" s="9"/>
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
@@ -884,11 +996,11 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="14">
       <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -901,7 +1013,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="14">
       <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -932,259 +1044,271 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="14">
       <c r="A17" s="9"/>
       <c r="B17" s="1"/>
       <c r="C17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="13" t="str">
-        <f>D17</f>
-        <v>NA</v>
-      </c>
-      <c r="F17" s="13" t="str">
-        <f t="shared" ref="F17:J17" si="7">E17</f>
-        <v>NA</v>
-      </c>
-      <c r="G17" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="11" t="str">
+        <f t="shared" ref="E17:K17" si="7">D17</f>
+        <v>NA</v>
+      </c>
+      <c r="F17" s="11" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="H17" s="13" t="str">
+      <c r="G17" s="11" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="I17" s="13" t="str">
+      <c r="H17" s="11" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="J17" s="13" t="str">
+      <c r="I17" s="11" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>13</v>
+      <c r="J17" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="K17" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="1"/>
       <c r="C18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="13" t="str">
-        <f t="shared" ref="E18:J18" si="8">D18</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f t="shared" ref="E18:K18" si="8">D18</f>
         <v>S32</v>
       </c>
-      <c r="F18" s="13" t="str">
+      <c r="F18" s="11" t="str">
         <f t="shared" si="8"/>
         <v>S32</v>
       </c>
-      <c r="G18" s="13" t="str">
+      <c r="G18" s="11" t="str">
         <f t="shared" si="8"/>
         <v>S32</v>
       </c>
-      <c r="H18" s="13" t="str">
+      <c r="H18" s="11" t="str">
         <f t="shared" si="8"/>
         <v>S32</v>
       </c>
-      <c r="I18" s="13" t="str">
+      <c r="I18" s="11" t="str">
         <f t="shared" si="8"/>
         <v>S32</v>
       </c>
-      <c r="J18" s="13" t="str">
+      <c r="J18" s="11" t="str">
         <f t="shared" si="8"/>
         <v>S32</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>14</v>
+      <c r="K18" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>S32</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="1"/>
       <c r="C19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="D19" s="16" t="str">
         <f>D17</f>
         <v>NA</v>
       </c>
-      <c r="E19" s="13" t="str">
-        <f t="shared" ref="E19:J19" si="9">D19</f>
-        <v>NA</v>
-      </c>
-      <c r="F19" s="13" t="str">
+      <c r="E19" s="11" t="str">
+        <f t="shared" ref="E19:K19" si="9">D19</f>
+        <v>NA</v>
+      </c>
+      <c r="F19" s="11" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="G19" s="13" t="str">
+      <c r="G19" s="11" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="H19" s="13" t="str">
+      <c r="H19" s="11" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="I19" s="13" t="str">
+      <c r="I19" s="11" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="J19" s="13" t="str">
+      <c r="J19" s="11" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>13</v>
+      <c r="K19" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="1"/>
       <c r="C20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="D20" s="16" t="str">
         <f>D17</f>
         <v>NA</v>
       </c>
-      <c r="E20" s="13" t="str">
-        <f t="shared" ref="E20:J20" si="10">D20</f>
-        <v>NA</v>
-      </c>
-      <c r="F20" s="13" t="str">
+      <c r="E20" s="11" t="str">
+        <f t="shared" ref="E20:K20" si="10">D20</f>
+        <v>NA</v>
+      </c>
+      <c r="F20" s="11" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="G20" s="13" t="str">
+      <c r="G20" s="11" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="H20" s="13" t="str">
+      <c r="H20" s="11" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="I20" s="13" t="str">
+      <c r="I20" s="11" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="J20" s="13" t="str">
+      <c r="J20" s="11" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>13</v>
+      <c r="K20" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="1"/>
       <c r="C21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="13" t="str">
-        <f t="shared" ref="D21:D22" si="11">D18</f>
+        <v>4</v>
+      </c>
+      <c r="D21" s="16" t="str">
+        <f>D18</f>
         <v>S32</v>
       </c>
-      <c r="E21" s="13" t="str">
-        <f t="shared" ref="E21:J21" si="12">D21</f>
+      <c r="E21" s="11" t="str">
+        <f t="shared" ref="E21:K21" si="11">D21</f>
         <v>S32</v>
       </c>
-      <c r="F21" s="13" t="str">
-        <f t="shared" si="12"/>
+      <c r="F21" s="11" t="str">
+        <f t="shared" si="11"/>
         <v>S32</v>
       </c>
-      <c r="G21" s="13" t="str">
-        <f t="shared" si="12"/>
+      <c r="G21" s="11" t="str">
+        <f t="shared" si="11"/>
         <v>S32</v>
       </c>
-      <c r="H21" s="13" t="str">
-        <f t="shared" si="12"/>
+      <c r="H21" s="11" t="str">
+        <f t="shared" si="11"/>
         <v>S32</v>
       </c>
-      <c r="I21" s="13" t="str">
-        <f t="shared" si="12"/>
+      <c r="I21" s="11" t="str">
+        <f t="shared" si="11"/>
         <v>S32</v>
       </c>
-      <c r="J21" s="13" t="str">
-        <f t="shared" si="12"/>
+      <c r="J21" s="11" t="str">
+        <f t="shared" si="11"/>
         <v>S32</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>14</v>
+      <c r="K21" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v>S32</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="1"/>
       <c r="C22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="E22" s="13" t="str">
-        <f t="shared" ref="E22:J22" si="13">D22</f>
-        <v>NA</v>
-      </c>
-      <c r="F22" s="13" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="G22" s="13" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="H22" s="13" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="I22" s="13" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="J22" s="13" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="D22" s="16" t="str">
+        <f>D19</f>
+        <v>NA</v>
+      </c>
+      <c r="E22" s="11" t="str">
+        <f t="shared" ref="E22:K22" si="12">D22</f>
+        <v>NA</v>
+      </c>
+      <c r="F22" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="G22" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="H22" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="I22" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="J22" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="K22" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="14">
+      <c r="A25" s="9"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" ht="14">
+      <c r="A26" s="10"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="6">
         <v>1</v>
       </c>
@@ -1209,106 +1333,284 @@
       <c r="K26" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" ht="14">
+      <c r="A27" s="9"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="11" t="str">
+        <f t="shared" ref="E27:K32" si="13">$D$27</f>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="F27" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="G27" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="H27" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="I27" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="J27" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="K27" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13" ht="14">
+      <c r="A28" s="9"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="str">
+        <f>$D$27</f>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="E28" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="F28" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="G28" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="H28" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="I28" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="J28" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="K28" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" ht="14">
+      <c r="A29" s="9"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="7" t="s">
+      <c r="D29" s="11" t="str">
+        <f>$D$27</f>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="E29" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="F29" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="G29" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="H29" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="I29" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="J29" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="K29" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13" ht="14">
+      <c r="A30" s="9"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="7" t="s">
+      <c r="D30" s="11" t="str">
+        <f>$D$27</f>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="E30" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="F30" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="G30" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="H30" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="I30" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="J30" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="K30" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:13" ht="14">
+      <c r="A31" s="9"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="7" t="s">
+      <c r="D31" s="11" t="str">
+        <f>$D$27</f>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="E31" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="F31" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="G31" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="H31" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="I31" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="J31" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="K31" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13" ht="14">
+      <c r="A32" s="9"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="1"/>
+      <c r="D32" s="11" t="str">
+        <f>$D$27</f>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="E32" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="F32" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="G32" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="H32" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="I32" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="J32" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="K32" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>YYMMDDxa</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A33" s="9"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1">
       <c r="C35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C36" s="6"/>
       <c r="D36" s="6">
         <v>1</v>
       </c>
@@ -1333,272 +1635,237 @@
       <c r="K36" s="6">
         <v>8</v>
       </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-    </row>
-    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="1"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1">
       <c r="C37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11" t="str">
+        <f ca="1">IF(RAND()&lt;0.5,"level X",IF(RAND()&lt;0.5,"level Y","level Z"))</f>
+        <v>level X</v>
+      </c>
+      <c r="E37" s="11" t="str">
+        <f t="shared" ref="E37:K42" ca="1" si="14">IF(RAND()&lt;0.5,"level X",IF(RAND()&lt;0.5,"level Y","level Z"))</f>
+        <v>level X</v>
+      </c>
+      <c r="F37" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Z</v>
+      </c>
+      <c r="G37" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="H37" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="I37" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Y</v>
+      </c>
+      <c r="J37" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Z</v>
+      </c>
+      <c r="K37" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Y</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11" t="str">
+        <f t="shared" ref="D38:K42" ca="1" si="15">IF(RAND()&lt;0.5,"level X",IF(RAND()&lt;0.5,"level Y","level Z"))</f>
+        <v>level X</v>
+      </c>
+      <c r="E38" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="F38" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Y</v>
+      </c>
+      <c r="G38" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Z</v>
+      </c>
+      <c r="H38" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Y</v>
+      </c>
+      <c r="I38" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="J38" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Z</v>
+      </c>
+      <c r="K38" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Y</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="F37" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="G37" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="H37" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="I37" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="J37" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="K37" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-    </row>
-    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="7" t="s">
+      <c r="D39" s="11" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>level X</v>
+      </c>
+      <c r="E39" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Z</v>
+      </c>
+      <c r="F39" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Y</v>
+      </c>
+      <c r="G39" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Y</v>
+      </c>
+      <c r="H39" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="I39" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="J39" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="K39" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="E38" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="F38" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="G38" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="H38" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="I38" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="J38" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="K38" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-    </row>
-    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="7" t="s">
+      <c r="D40" s="11" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>level X</v>
+      </c>
+      <c r="E40" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Y</v>
+      </c>
+      <c r="F40" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Y</v>
+      </c>
+      <c r="G40" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="H40" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="I40" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Y</v>
+      </c>
+      <c r="J40" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="K40" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="E39" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="F39" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="G39" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="H39" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="I39" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="J39" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="K39" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-    </row>
-    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="7" t="s">
+      <c r="D41" s="11" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>level Y</v>
+      </c>
+      <c r="E41" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="F41" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Z</v>
+      </c>
+      <c r="G41" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Y</v>
+      </c>
+      <c r="H41" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="I41" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="J41" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="K41" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="E40" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="F40" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="G40" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="H40" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="I40" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="J40" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="K40" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-    </row>
-    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="E41" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="F41" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="G41" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="H41" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="I41" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="J41" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="K41" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="E42" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="F42" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="G42" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="H42" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="I42" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="J42" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="K42" s="12" t="str">
-        <f>$D$37</f>
-        <v>150522ae</v>
-      </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
+      <c r="D42" s="11" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>level Y</v>
+      </c>
+      <c r="E42" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Y</v>
+      </c>
+      <c r="F42" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="G42" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="H42" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Y</v>
+      </c>
+      <c r="I42" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Z</v>
+      </c>
+      <c r="J42" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level X</v>
+      </c>
+      <c r="K42" s="11" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>level Z</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="120" fitToWidth="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="120" fitToWidth="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1606,24 +1873,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="3" style="16" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="9" style="16" customWidth="1"/>
-    <col min="7" max="8" width="9.5703125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9" style="16" customWidth="1"/>
-    <col min="10" max="11" width="9.5703125" style="16" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" style="16" customWidth="1"/>
-    <col min="14" max="16384" width="14.42578125" style="16"/>
+    <col min="1" max="2" width="8.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="3" style="14" customWidth="1"/>
+    <col min="4" max="5" width="9.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9" style="14" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9" style="14" customWidth="1"/>
+    <col min="10" max="11" width="9.5" style="14" customWidth="1"/>
+    <col min="12" max="13" width="8.6640625" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="14.5" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="14">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="7"/>
@@ -1638,7 +1905,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="14">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="7"/>
@@ -1653,7 +1920,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="14">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="7"/>
@@ -1668,7 +1935,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="14">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="7"/>
@@ -1683,11 +1950,11 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="14">
       <c r="A5" s="9"/>
       <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1700,7 +1967,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="14">
       <c r="A6" s="10"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1731,250 +1998,250 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="14">
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="13" t="str">
+      <c r="D7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="12" t="str">
         <f>D7</f>
         <v>ax</v>
       </c>
-      <c r="F7" s="13" t="str">
+      <c r="F7" s="12" t="str">
         <f t="shared" ref="F7:K7" si="0">E7</f>
         <v>ax</v>
       </c>
-      <c r="G7" s="13" t="str">
+      <c r="G7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ax</v>
       </c>
-      <c r="H7" s="13" t="str">
+      <c r="H7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ax</v>
       </c>
-      <c r="I7" s="13" t="str">
+      <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ax</v>
       </c>
-      <c r="J7" s="13" t="str">
+      <c r="J7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ax</v>
       </c>
-      <c r="K7" s="13" t="str">
+      <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ax</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="14">
       <c r="A8" s="9"/>
       <c r="B8" s="8"/>
       <c r="C8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12" t="str">
         <f t="shared" ref="E8:K12" si="1">D8</f>
         <v>co</v>
       </c>
-      <c r="F8" s="13" t="str">
+      <c r="F8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="G8" s="13" t="str">
+      <c r="G8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="H8" s="13" t="str">
+      <c r="H8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="I8" s="13" t="str">
+      <c r="I8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="J8" s="13" t="str">
+      <c r="J8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="K8" s="13" t="str">
+      <c r="K8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="14">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
       <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="F9" s="13" t="str">
+      <c r="F9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="G9" s="13" t="str">
+      <c r="G9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="H9" s="13" t="str">
+      <c r="H9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="I9" s="13" t="str">
+      <c r="I9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="J9" s="13" t="str">
+      <c r="J9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="K9" s="13" t="str">
+      <c r="K9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="14">
       <c r="A10" s="9"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12" t="str">
         <f>D7</f>
         <v>ax</v>
       </c>
-      <c r="E10" s="13" t="str">
+      <c r="E10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ax</v>
       </c>
-      <c r="F10" s="13" t="str">
+      <c r="F10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ax</v>
       </c>
-      <c r="G10" s="13" t="str">
+      <c r="G10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ax</v>
       </c>
-      <c r="H10" s="13" t="str">
+      <c r="H10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ax</v>
       </c>
-      <c r="I10" s="13" t="str">
+      <c r="I10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ax</v>
       </c>
-      <c r="J10" s="13" t="str">
+      <c r="J10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ax</v>
       </c>
-      <c r="K10" s="13" t="str">
+      <c r="K10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ax</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="14">
       <c r="A11" s="9"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="13" t="str">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="str">
         <f t="shared" ref="D11:D12" si="2">D8</f>
         <v>co</v>
       </c>
-      <c r="E11" s="13" t="str">
+      <c r="E11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="F11" s="13" t="str">
+      <c r="F11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="G11" s="13" t="str">
+      <c r="G11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="H11" s="13" t="str">
+      <c r="H11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="I11" s="13" t="str">
+      <c r="I11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="J11" s="13" t="str">
+      <c r="J11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="K11" s="13" t="str">
+      <c r="K11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="14">
       <c r="A12" s="9"/>
       <c r="B12" s="8"/>
       <c r="C12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="13" t="str">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12" t="str">
         <f t="shared" si="2"/>
         <v>xen</v>
       </c>
-      <c r="E12" s="13" t="str">
+      <c r="E12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="F12" s="13" t="str">
+      <c r="F12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="G12" s="13" t="str">
+      <c r="G12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="H12" s="13" t="str">
+      <c r="H12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="I12" s="13" t="str">
+      <c r="I12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="J12" s="13" t="str">
+      <c r="J12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="K12" s="13" t="str">
+      <c r="K12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="14">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
@@ -1989,7 +2256,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="14">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
@@ -2004,11 +2271,11 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="14">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2021,7 +2288,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="14">
       <c r="A16" s="10"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2052,245 +2319,251 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="14">
       <c r="A17" s="9"/>
       <c r="B17" s="8"/>
       <c r="C17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="13" t="str">
-        <f>D17</f>
-        <v>NA</v>
-      </c>
-      <c r="F17" s="13" t="str">
-        <f t="shared" ref="F17:J17" si="3">E17</f>
-        <v>NA</v>
-      </c>
-      <c r="G17" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="11" t="str">
+        <f t="shared" ref="E17:K17" si="3">D17</f>
+        <v>NA</v>
+      </c>
+      <c r="F17" s="11" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="H17" s="13" t="str">
+      <c r="G17" s="11" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="I17" s="13" t="str">
+      <c r="H17" s="11" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="J17" s="13" t="str">
+      <c r="I17" s="11" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>13</v>
+      <c r="J17" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+      <c r="K17" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
       <c r="C18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="13" t="str">
-        <f t="shared" ref="E18:J22" si="4">D18</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f t="shared" ref="E18:K22" si="4">D18</f>
         <v>S32</v>
       </c>
-      <c r="F18" s="13" t="str">
+      <c r="F18" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="G18" s="13" t="str">
+      <c r="G18" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="H18" s="13" t="str">
+      <c r="H18" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="I18" s="13" t="str">
+      <c r="I18" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="J18" s="13" t="str">
+      <c r="J18" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>14</v>
+      <c r="K18" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>S32</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="8"/>
       <c r="C19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="D19" s="16" t="str">
         <f>D17</f>
         <v>NA</v>
       </c>
-      <c r="E19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="F19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="G19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="H19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="I19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="J19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>13</v>
+      <c r="E19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="F19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="G19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="H19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="I19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="J19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="K19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="8"/>
       <c r="C20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="D20" s="16" t="str">
         <f>D17</f>
         <v>NA</v>
       </c>
-      <c r="E20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="F20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="G20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="H20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="I20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="J20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>13</v>
+      <c r="E20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="F20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="H20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="I20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="J20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="K20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="8"/>
       <c r="C21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="13" t="str">
-        <f t="shared" ref="D21:D22" si="5">D18</f>
+        <v>4</v>
+      </c>
+      <c r="D21" s="16" t="str">
+        <f>D18</f>
         <v>S32</v>
       </c>
-      <c r="E21" s="13" t="str">
+      <c r="E21" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="F21" s="13" t="str">
+      <c r="F21" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="G21" s="13" t="str">
+      <c r="G21" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="H21" s="13" t="str">
+      <c r="H21" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="I21" s="13" t="str">
+      <c r="I21" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="J21" s="13" t="str">
+      <c r="J21" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>14</v>
+      <c r="K21" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>S32</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="C22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="E22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="F22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="G22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="H22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="I22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="J22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="D22" s="16" t="str">
+        <f>D19</f>
+        <v>NA</v>
+      </c>
+      <c r="E22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="F22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="G22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="H22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="I22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="J22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="K22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="14">
       <c r="A23" s="9"/>
       <c r="B23" s="8"/>
       <c r="C23" s="7"/>
@@ -2305,7 +2578,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="14">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7"/>
@@ -2320,11 +2593,11 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="14">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2337,7 +2610,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="14">
       <c r="A26" s="10"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2368,252 +2641,252 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="14">
       <c r="A27" s="9"/>
       <c r="B27" s="8"/>
       <c r="C27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="12" t="str">
-        <f t="shared" ref="E27:K27" si="6">$D$27</f>
-        <v>150522af</v>
-      </c>
-      <c r="F27" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>150522af</v>
-      </c>
-      <c r="G27" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>150522af</v>
-      </c>
-      <c r="H27" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>150522af</v>
-      </c>
-      <c r="I27" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>150522af</v>
-      </c>
-      <c r="J27" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>150522af</v>
-      </c>
-      <c r="K27" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>150522af</v>
+        <v>0</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11" t="str">
+        <f t="shared" ref="E27:K27" si="5">$D$27</f>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="F27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="G27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="H27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="I27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="J27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="K27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>YYMMDDxb</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="14">
       <c r="A28" s="9"/>
       <c r="B28" s="8"/>
       <c r="C28" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="12" t="str">
-        <f t="shared" ref="D28:K32" si="7">$D$27</f>
-        <v>150522af</v>
-      </c>
-      <c r="E28" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="F28" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="G28" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="H28" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="I28" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="J28" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="K28" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="str">
+        <f t="shared" ref="D28:K32" si="6">$D$27</f>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="E28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="F28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="G28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="H28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="I28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="J28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="K28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="14">
       <c r="A29" s="9"/>
       <c r="B29" s="8"/>
       <c r="C29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="E29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="F29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="G29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="H29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="I29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="J29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="K29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
+        <v>2</v>
+      </c>
+      <c r="D29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="E29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="F29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="G29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="H29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="I29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="J29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="K29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="14">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
       <c r="C30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="E30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="F30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="G30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="H30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="I30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="J30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="K30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
+        <v>3</v>
+      </c>
+      <c r="D30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="E30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="F30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="G30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="H30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="I30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="J30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="K30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="14">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
       <c r="C31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="E31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="F31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="G31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="H31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="I31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="J31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="K31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
+        <v>4</v>
+      </c>
+      <c r="D31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="E31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="F31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="G31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="H31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="I31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="J31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="K31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="14">
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
       <c r="C32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="E32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="F32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="G32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="H32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="I32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="J32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
-      </c>
-      <c r="K32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522af</v>
+        <v>5</v>
+      </c>
+      <c r="D32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="E32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="F32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="G32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="H32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="I32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="J32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
+      </c>
+      <c r="K32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxb</v>
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="8"/>
       <c r="C33" s="7"/>
@@ -2628,9 +2901,9 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1">
       <c r="C35" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2641,7 +2914,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1">
       <c r="C36" s="6"/>
       <c r="D36" s="6">
         <v>1</v>
@@ -2668,87 +2941,236 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1">
       <c r="C37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11" t="str">
+        <f ca="1">IF(RAND()&lt;0.5,"level X",IF(RAND()&lt;0.5,"level Y","level Z"))</f>
+        <v>level Y</v>
+      </c>
+      <c r="E37" s="11" t="str">
+        <f t="shared" ref="E37:K42" ca="1" si="7">IF(RAND()&lt;0.5,"level X",IF(RAND()&lt;0.5,"level Y","level Z"))</f>
+        <v>level X</v>
+      </c>
+      <c r="F37" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="G37" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="H37" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+      <c r="I37" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+      <c r="J37" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="K37" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11" t="str">
+        <f t="shared" ref="D38:K42" ca="1" si="8">IF(RAND()&lt;0.5,"level X",IF(RAND()&lt;0.5,"level Y","level Z"))</f>
+        <v>level X</v>
+      </c>
+      <c r="E38" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+      <c r="F38" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="G38" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="H38" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+      <c r="I38" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="J38" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="K38" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="7" t="s">
+      <c r="D39" s="11" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>level Z</v>
+      </c>
+      <c r="E39" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="F39" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="G39" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="H39" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="I39" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="J39" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="K39" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="7" t="s">
+      <c r="D40" s="11" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>level Z</v>
+      </c>
+      <c r="E40" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="F40" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="G40" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="H40" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="I40" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="J40" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="K40" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="7" t="s">
+      <c r="D41" s="11" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>level X</v>
+      </c>
+      <c r="E41" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="F41" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="G41" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="H41" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="I41" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="J41" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="K41" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
+      <c r="D42" s="11" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>level Z</v>
+      </c>
+      <c r="E42" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+      <c r="F42" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="G42" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="H42" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="I42" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="J42" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="K42" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="120" fitToWidth="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="120" fitToWidth="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2756,24 +3178,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="3" style="16" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="9" style="16" customWidth="1"/>
-    <col min="7" max="8" width="9.5703125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9" style="16" customWidth="1"/>
-    <col min="10" max="11" width="9.5703125" style="16" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" style="16" customWidth="1"/>
-    <col min="14" max="16384" width="14.42578125" style="16"/>
+    <col min="1" max="2" width="8.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="3" style="14" customWidth="1"/>
+    <col min="4" max="5" width="9.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9" style="14" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9" style="14" customWidth="1"/>
+    <col min="10" max="11" width="9.5" style="14" customWidth="1"/>
+    <col min="12" max="13" width="8.6640625" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="14.5" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="14">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="7"/>
@@ -2788,7 +3210,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="14">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="7"/>
@@ -2803,7 +3225,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="14">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="7"/>
@@ -2818,7 +3240,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="14">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="7"/>
@@ -2833,11 +3255,11 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="14">
       <c r="A5" s="9"/>
       <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -2850,7 +3272,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="14">
       <c r="A6" s="10"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2881,250 +3303,250 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="14">
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="13" t="str">
+      <c r="D7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="12" t="str">
         <f>D7</f>
         <v>ax</v>
       </c>
-      <c r="F7" s="13" t="str">
+      <c r="F7" s="12" t="str">
         <f t="shared" ref="F7:K7" si="0">E7</f>
         <v>ax</v>
       </c>
-      <c r="G7" s="13" t="str">
+      <c r="G7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ax</v>
       </c>
-      <c r="H7" s="13" t="str">
+      <c r="H7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ax</v>
       </c>
-      <c r="I7" s="13" t="str">
+      <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ax</v>
       </c>
-      <c r="J7" s="13" t="str">
+      <c r="J7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ax</v>
       </c>
-      <c r="K7" s="13" t="str">
+      <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ax</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="14">
       <c r="A8" s="9"/>
       <c r="B8" s="8"/>
       <c r="C8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12" t="str">
         <f t="shared" ref="E8:K12" si="1">D8</f>
         <v>co</v>
       </c>
-      <c r="F8" s="13" t="str">
+      <c r="F8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="G8" s="13" t="str">
+      <c r="G8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="H8" s="13" t="str">
+      <c r="H8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="I8" s="13" t="str">
+      <c r="I8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="J8" s="13" t="str">
+      <c r="J8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="K8" s="13" t="str">
+      <c r="K8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="14">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
       <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="F9" s="13" t="str">
+      <c r="F9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="G9" s="13" t="str">
+      <c r="G9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="H9" s="13" t="str">
+      <c r="H9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="I9" s="13" t="str">
+      <c r="I9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="J9" s="13" t="str">
+      <c r="J9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="K9" s="13" t="str">
+      <c r="K9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="14">
       <c r="A10" s="9"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12" t="str">
         <f>D7</f>
         <v>ax</v>
       </c>
-      <c r="E10" s="13" t="str">
+      <c r="E10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ax</v>
       </c>
-      <c r="F10" s="13" t="str">
+      <c r="F10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ax</v>
       </c>
-      <c r="G10" s="13" t="str">
+      <c r="G10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ax</v>
       </c>
-      <c r="H10" s="13" t="str">
+      <c r="H10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ax</v>
       </c>
-      <c r="I10" s="13" t="str">
+      <c r="I10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ax</v>
       </c>
-      <c r="J10" s="13" t="str">
+      <c r="J10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ax</v>
       </c>
-      <c r="K10" s="13" t="str">
+      <c r="K10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ax</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="14">
       <c r="A11" s="9"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="13" t="str">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="str">
         <f t="shared" ref="D11:D12" si="2">D8</f>
         <v>co</v>
       </c>
-      <c r="E11" s="13" t="str">
+      <c r="E11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="F11" s="13" t="str">
+      <c r="F11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="G11" s="13" t="str">
+      <c r="G11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="H11" s="13" t="str">
+      <c r="H11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="I11" s="13" t="str">
+      <c r="I11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="J11" s="13" t="str">
+      <c r="J11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
-      <c r="K11" s="13" t="str">
+      <c r="K11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>co</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="14">
       <c r="A12" s="9"/>
       <c r="B12" s="8"/>
       <c r="C12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="13" t="str">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12" t="str">
         <f t="shared" si="2"/>
         <v>xen</v>
       </c>
-      <c r="E12" s="13" t="str">
+      <c r="E12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="F12" s="13" t="str">
+      <c r="F12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="G12" s="13" t="str">
+      <c r="G12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="H12" s="13" t="str">
+      <c r="H12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="I12" s="13" t="str">
+      <c r="I12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="J12" s="13" t="str">
+      <c r="J12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
-      <c r="K12" s="13" t="str">
+      <c r="K12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>xen</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="14">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
@@ -3139,7 +3561,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="14">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
@@ -3154,11 +3576,11 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="14">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3171,7 +3593,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="14">
       <c r="A16" s="10"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3202,245 +3624,251 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="14">
       <c r="A17" s="9"/>
       <c r="B17" s="8"/>
       <c r="C17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="13" t="str">
-        <f>D17</f>
-        <v>NA</v>
-      </c>
-      <c r="F17" s="13" t="str">
-        <f t="shared" ref="F17:J17" si="3">E17</f>
-        <v>NA</v>
-      </c>
-      <c r="G17" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="11" t="str">
+        <f t="shared" ref="E17:K17" si="3">D17</f>
+        <v>NA</v>
+      </c>
+      <c r="F17" s="11" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="H17" s="13" t="str">
+      <c r="G17" s="11" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="I17" s="13" t="str">
+      <c r="H17" s="11" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="J17" s="13" t="str">
+      <c r="I17" s="11" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>13</v>
+      <c r="J17" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+      <c r="K17" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
       <c r="C18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="13" t="str">
-        <f t="shared" ref="E18:J22" si="4">D18</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f t="shared" ref="E18:K22" si="4">D18</f>
         <v>S32</v>
       </c>
-      <c r="F18" s="13" t="str">
+      <c r="F18" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="G18" s="13" t="str">
+      <c r="G18" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="H18" s="13" t="str">
+      <c r="H18" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="I18" s="13" t="str">
+      <c r="I18" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="J18" s="13" t="str">
+      <c r="J18" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>14</v>
+      <c r="K18" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>S32</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="8"/>
       <c r="C19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="D19" s="16" t="str">
         <f>D17</f>
         <v>NA</v>
       </c>
-      <c r="E19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="F19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="G19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="H19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="I19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="J19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>13</v>
+      <c r="E19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="F19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="G19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="H19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="I19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="J19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="K19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="8"/>
       <c r="C20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="D20" s="16" t="str">
         <f>D17</f>
         <v>NA</v>
       </c>
-      <c r="E20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="F20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="G20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="H20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="I20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="J20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>13</v>
+      <c r="E20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="F20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="H20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="I20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="J20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="K20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="8"/>
       <c r="C21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="13" t="str">
-        <f t="shared" ref="D21:D22" si="5">D18</f>
+        <v>4</v>
+      </c>
+      <c r="D21" s="16" t="str">
+        <f>D18</f>
         <v>S32</v>
       </c>
-      <c r="E21" s="13" t="str">
+      <c r="E21" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="F21" s="13" t="str">
+      <c r="F21" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="G21" s="13" t="str">
+      <c r="G21" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="H21" s="13" t="str">
+      <c r="H21" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="I21" s="13" t="str">
+      <c r="I21" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="J21" s="13" t="str">
+      <c r="J21" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S32</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>14</v>
+      <c r="K21" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>S32</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="C22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="E22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="F22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="G22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="H22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="I22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="J22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="D22" s="16" t="str">
+        <f>D19</f>
+        <v>NA</v>
+      </c>
+      <c r="E22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="F22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="G22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="H22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="I22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="J22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="K22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="14">
       <c r="A23" s="9"/>
       <c r="B23" s="8"/>
       <c r="C23" s="7"/>
@@ -3455,7 +3883,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="14">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7"/>
@@ -3470,11 +3898,11 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="14">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -3487,7 +3915,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="14">
       <c r="A26" s="10"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3518,252 +3946,252 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="14">
       <c r="A27" s="9"/>
       <c r="B27" s="8"/>
       <c r="C27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="12" t="str">
-        <f t="shared" ref="E27:K27" si="6">$D$27</f>
-        <v>150522ag</v>
-      </c>
-      <c r="F27" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>150522ag</v>
-      </c>
-      <c r="G27" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>150522ag</v>
-      </c>
-      <c r="H27" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>150522ag</v>
-      </c>
-      <c r="I27" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>150522ag</v>
-      </c>
-      <c r="J27" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>150522ag</v>
-      </c>
-      <c r="K27" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>150522ag</v>
+        <v>0</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="11" t="str">
+        <f t="shared" ref="E27:K27" si="5">$D$27</f>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="F27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="G27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="H27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="I27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="J27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="K27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>YYMMDDxc</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="14">
       <c r="A28" s="9"/>
       <c r="B28" s="8"/>
       <c r="C28" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="12" t="str">
-        <f t="shared" ref="D28:K32" si="7">$D$27</f>
-        <v>150522ag</v>
-      </c>
-      <c r="E28" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="F28" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="G28" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="H28" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="I28" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="J28" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="K28" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="str">
+        <f t="shared" ref="D28:K32" si="6">$D$27</f>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="E28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="F28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="G28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="H28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="I28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="J28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="K28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="14">
       <c r="A29" s="9"/>
       <c r="B29" s="8"/>
       <c r="C29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="E29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="F29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="G29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="H29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="I29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="J29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="K29" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
+        <v>2</v>
+      </c>
+      <c r="D29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="E29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="F29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="G29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="H29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="I29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="J29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="K29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="14">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
       <c r="C30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="E30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="F30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="G30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="H30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="I30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="J30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="K30" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
+        <v>3</v>
+      </c>
+      <c r="D30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="E30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="F30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="G30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="H30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="I30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="J30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="K30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="14">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
       <c r="C31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="E31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="F31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="G31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="H31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="I31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="J31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="K31" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
+        <v>4</v>
+      </c>
+      <c r="D31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="E31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="F31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="G31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="H31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="I31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="J31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="K31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="14">
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
       <c r="C32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="E32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="F32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="G32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="H32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="I32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="J32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
-      </c>
-      <c r="K32" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>150522ag</v>
+        <v>5</v>
+      </c>
+      <c r="D32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="E32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="F32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="G32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="H32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="I32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="J32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
+      </c>
+      <c r="K32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>YYMMDDxc</v>
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="8"/>
       <c r="C33" s="7"/>
@@ -3778,9 +4206,9 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1">
       <c r="C35" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -3791,7 +4219,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1">
       <c r="C36" s="6"/>
       <c r="D36" s="6">
         <v>1</v>
@@ -3818,86 +4246,235 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1">
       <c r="C37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11" t="str">
+        <f ca="1">IF(RAND()&lt;0.5,"level X",IF(RAND()&lt;0.5,"level Y","level Z"))</f>
+        <v>level Z</v>
+      </c>
+      <c r="E37" s="11" t="str">
+        <f t="shared" ref="E37:K42" ca="1" si="7">IF(RAND()&lt;0.5,"level X",IF(RAND()&lt;0.5,"level Y","level Z"))</f>
+        <v>level X</v>
+      </c>
+      <c r="F37" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="G37" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="H37" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="I37" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="J37" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="K37" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11" t="str">
+        <f t="shared" ref="D38:K42" ca="1" si="8">IF(RAND()&lt;0.5,"level X",IF(RAND()&lt;0.5,"level Y","level Z"))</f>
+        <v>level X</v>
+      </c>
+      <c r="E38" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="F38" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="G38" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+      <c r="H38" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="I38" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+      <c r="J38" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="K38" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="7" t="s">
+      <c r="D39" s="11" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>level X</v>
+      </c>
+      <c r="E39" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="F39" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+      <c r="G39" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="H39" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+      <c r="I39" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="J39" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="K39" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="7" t="s">
+      <c r="D40" s="11" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>level X</v>
+      </c>
+      <c r="E40" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="F40" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="G40" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="H40" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+      <c r="I40" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="J40" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+      <c r="K40" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="7" t="s">
+      <c r="D41" s="11" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>level Y</v>
+      </c>
+      <c r="E41" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="F41" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="G41" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+      <c r="H41" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="I41" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="J41" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="K41" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
+      <c r="D42" s="11" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>level Z</v>
+      </c>
+      <c r="E42" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+      <c r="F42" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="G42" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="H42" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
+      <c r="I42" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Z</v>
+      </c>
+      <c r="J42" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level X</v>
+      </c>
+      <c r="K42" s="11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>level Y</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="120" fitToWidth="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="120" fitToWidth="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>